--- a/similarities/split_global/harmonic_similarity_timestamps_230.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E/3', 'A:min', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:09.500000', '0:00:22.040000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.579000', '0:00:17.703000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=9.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+          <t>('0:01:33.440000', '0:01:38.780000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+          <t>('0:01:36.760000', '0:01:43.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=93.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab', 'Eb']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:22.589990')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:14.260000', '0:02:21.510000')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Bb/3'], ['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G'], ['G', 'C', 'G', 'C']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.932000', '0:00:23.992000'), ('0:00:07.702000', '0:00:13.688000')]</t>
+          <t>('0:00:19.380000', '0:00:25.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:21.635759'), ('0:00:04.476213', '0:00:23.110226')]</t>
+          <t>('0:01:15.720000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=19.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=4.476213']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:02.960000', '0:00:13.120000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.300000', '0:00:05.850000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=2.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:29.500000', '0:00:31.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:32.200000', '0:00:36.200000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min', 'Eb/3'], ['F:min', 'C:min', 'Eb/3']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'D#:min/F#', 'C#:maj/F'], ['D#:min/A#', 'A#:min', 'C#:maj/G#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.490000', '0:00:04.314000'), ('0:00:34.098000', '0:00:38.337000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:32.800000', '0:00:36.980000'), ('0:00:28', '0:00:34.600000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=1.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=34.098']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=32.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=28.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:7']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:24.630000')]</t>
+          <t>('0:01:42.760000', '0:01:58.780000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.050000', '0:00:08.260000')]</t>
+          <t>('0:00:10.940000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=102.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=10.94</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:32.100000')]</t>
+          <t>('0:00:17.180000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:51.170000', '0:00:54.730000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.640000', '0:00:16.490000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=12.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['Ab', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+          <t>('0:01:03.100000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:02:09.720000', '0:02:17.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:25.640000', '0:00:55.140000')]</t>
+          <t>('0:01:07.560000', '0:01:14.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:25.180000')]</t>
+          <t>('0:00:41.520000', '0:00:46.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:07.525011', '0:00:16.557573')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
